--- a/Experiments/RQ3 Real World NCF bug Detection with Test Sequence/Bugsheet.xlsx
+++ b/Experiments/RQ3 Real World NCF bug Detection with Test Sequence/Bugsheet.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beish\Desktop\Ucincinnati\research\FunctionalBugs\Oracleresult (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bangy\OneDrive\Desktop\New folder\OLLM\Experiments\RQ3 Real World NCF bug Detection with Test Sequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00B708-B743-4CE2-AEF1-BD86F2F54A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467959A-CAA1-4CB8-A4A1-67F0B0EE1688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13330" yWindow="2540" windowWidth="21000" windowHeight="17750" xr2:uid="{50B0C0EF-BACA-40B7-985A-7AE872F89EC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{50B0C0EF-BACA-40B7-985A-7AE872F89EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="Old version" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$B$1:$H$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="152">
   <si>
     <t>App Name</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t xml:space="preserve">L.= Language related </t>
+  </si>
+  <si>
+    <t>BUG ID</t>
   </si>
 </sst>
 </file>
@@ -788,9 +791,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -828,7 +831,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -934,7 +937,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1076,7 +1079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1084,722 +1087,810 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD15081-7567-450E-83C6-0E127433C225}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:8" s="13" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="F4" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="F6" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="H7" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="F10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="F11" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
+      <c r="F12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="F14" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+      <c r="F16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="H17" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
+      <c r="F18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
+      <c r="F19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+      <c r="F20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
+      <c r="F21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
+      <c r="F22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F23" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="G23" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="H23" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="11" t="s">
+      <c r="F24" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
+      <c r="F25" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="11" t="s">
+      <c r="F26" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="11" t="s">
+      <c r="F27" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="H28" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
+      <c r="H29" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.45">
-      <c r="C32" s="28" t="s">
+      <c r="F30" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G30" xr:uid="{9BD15081-7567-450E-83C6-0E127433C225}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
-    <sortCondition ref="A1:A30"/>
+  <autoFilter ref="B1:H30" xr:uid="{9BD15081-7567-450E-83C6-0E127433C225}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E30">
+    <sortCondition ref="B1:B30"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{A0276804-E5A2-4323-8048-D2EC2599C737}"/>
-    <hyperlink ref="F23" r:id="rId2" xr:uid="{9071D285-C6A4-4FED-B940-BF2BEDE73D8C}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{A0276804-E5A2-4323-8048-D2EC2599C737}"/>
+    <hyperlink ref="G23" r:id="rId2" xr:uid="{9071D285-C6A4-4FED-B940-BF2BEDE73D8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1814,15 +1905,14 @@
       <selection activeCell="D15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1850,7 +1940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1864,7 +1954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -1878,7 +1968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -1892,7 +1982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1906,7 +1996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1920,7 +2010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1934,7 +2024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1948,7 +2038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1962,13 +2052,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -1996,7 +2086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2010,7 +2100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -2024,7 +2114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -2038,7 +2128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +2142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -2066,7 +2156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -2080,7 +2170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -2094,7 +2184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2108,7 +2198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +2209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -2130,7 +2220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -2141,7 +2231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -2152,7 +2242,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
@@ -2163,7 +2253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2174,7 +2264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
@@ -2185,7 +2275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
@@ -2196,7 +2286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2207,7 +2297,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -2218,7 +2308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -2229,7 +2319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -2240,7 +2330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -2251,7 +2341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -2262,7 +2352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -2273,7 +2363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -2306,7 +2396,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -2317,7 +2407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -2328,7 +2418,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -2339,7 +2429,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -2350,7 +2440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -2361,7 +2451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
